--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRUNO\Documentos\ARTIGOS\_Forage Grass Varieties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BRUNO\Documentos\ARTIGOS\_AGRICULTURA\_Forage Grass Varieties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D3EFE-A5F5-4A7B-8202-569C1A0923F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8E3CA-FCD0-4CB9-BB12-7736691E40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>NT</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
   <si>
     <t>RV</t>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Variety</t>
+  </si>
+  <si>
+    <t>NGL</t>
   </si>
 </sst>
 </file>
@@ -154,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,9 +194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,26 +229,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,26 +264,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +460,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -509,22 +475,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -545,10 +511,10 @@
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -599,10 +565,10 @@
     </row>
     <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -653,10 +619,10 @@
     </row>
     <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -705,10 +671,10 @@
     </row>
     <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -757,10 +723,10 @@
     </row>
     <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -809,10 +775,10 @@
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
@@ -861,10 +827,10 @@
     </row>
     <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -913,10 +879,10 @@
     </row>
     <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -965,10 +931,10 @@
     </row>
     <row r="10" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -1017,10 +983,10 @@
     </row>
     <row r="11" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1069,10 +1035,10 @@
     </row>
     <row r="12" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -1121,10 +1087,10 @@
     </row>
     <row r="13" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1173,10 +1139,10 @@
     </row>
     <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1225,10 +1191,10 @@
     </row>
     <row r="15" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -1278,10 +1244,10 @@
     </row>
     <row r="16" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1330,10 +1296,10 @@
     </row>
     <row r="17" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1382,10 +1348,10 @@
     </row>
     <row r="18" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -1434,10 +1400,10 @@
     </row>
     <row r="19" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -1486,10 +1452,10 @@
     </row>
     <row r="20" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1538,10 +1504,10 @@
     </row>
     <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -1590,10 +1556,10 @@
     </row>
     <row r="22" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
@@ -1642,10 +1608,10 @@
     </row>
     <row r="23" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1694,10 +1660,10 @@
     </row>
     <row r="24" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -1746,10 +1712,10 @@
     </row>
     <row r="25" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
@@ -1798,10 +1764,10 @@
     </row>
     <row r="26" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1850,10 +1816,10 @@
     </row>
     <row r="27" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -1902,10 +1868,10 @@
     </row>
     <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <v>3</v>
@@ -1957,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -2009,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -2059,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -2109,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -2159,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
@@ -2209,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -2259,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2313,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -2372,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="4">
         <v>3</v>
@@ -2423,10 +2389,10 @@
     </row>
     <row r="38" spans="1:43" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -2477,10 +2443,10 @@
     </row>
     <row r="39" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -2531,10 +2497,10 @@
     </row>
     <row r="40" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
@@ -2585,10 +2551,10 @@
     </row>
     <row r="41" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2639,10 +2605,10 @@
     </row>
     <row r="42" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -2693,10 +2659,10 @@
     </row>
     <row r="43" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="4">
         <v>3</v>
@@ -2747,10 +2713,10 @@
     </row>
     <row r="44" spans="1:43" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
@@ -2801,10 +2767,10 @@
     </row>
     <row r="45" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
@@ -2855,10 +2821,10 @@
     </row>
     <row r="46" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
@@ -2912,7 +2878,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2966,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
@@ -3020,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
@@ -3074,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -3128,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="4">
         <v>2</v>
@@ -3182,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
@@ -3236,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -3290,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -3344,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
@@ -3395,10 +3361,10 @@
     </row>
     <row r="56" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -3449,10 +3415,10 @@
     </row>
     <row r="57" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -3503,10 +3469,10 @@
     </row>
     <row r="58" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
@@ -3557,10 +3523,10 @@
     </row>
     <row r="59" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
@@ -3611,10 +3577,10 @@
     </row>
     <row r="60" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="4">
         <v>2</v>
@@ -3665,10 +3631,10 @@
     </row>
     <row r="61" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
@@ -3719,10 +3685,10 @@
     </row>
     <row r="62" spans="1:41" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
@@ -3773,10 +3739,10 @@
     </row>
     <row r="63" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="4">
         <v>2</v>
@@ -3823,10 +3789,10 @@
     </row>
     <row r="64" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
@@ -3873,10 +3839,10 @@
     </row>
     <row r="65" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -3923,10 +3889,10 @@
     </row>
     <row r="66" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="4">
         <v>2</v>
@@ -3973,10 +3939,10 @@
     </row>
     <row r="67" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
@@ -4023,10 +3989,10 @@
     </row>
     <row r="68" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
@@ -4073,10 +4039,10 @@
     </row>
     <row r="69" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="4">
         <v>2</v>
@@ -4123,10 +4089,10 @@
     </row>
     <row r="70" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
@@ -4173,10 +4139,10 @@
     </row>
     <row r="71" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
@@ -4223,10 +4189,10 @@
     </row>
     <row r="72" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -4273,10 +4239,10 @@
     </row>
     <row r="73" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -4323,10 +4289,10 @@
     </row>
     <row r="74" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -4373,10 +4339,10 @@
     </row>
     <row r="75" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" s="4">
         <v>2</v>
@@ -4421,10 +4387,10 @@
     </row>
     <row r="76" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="4">
         <v>3</v>
@@ -4469,10 +4435,10 @@
     </row>
     <row r="77" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -4517,10 +4483,10 @@
     </row>
     <row r="78" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" s="4">
         <v>2</v>
@@ -4565,10 +4531,10 @@
     </row>
     <row r="79" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="4">
         <v>3</v>
@@ -4613,10 +4579,10 @@
     </row>
     <row r="80" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
@@ -4661,10 +4627,10 @@
     </row>
     <row r="81" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="4">
         <v>2</v>
@@ -4701,10 +4667,10 @@
     </row>
     <row r="82" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" s="4">
         <v>3</v>
